--- a/Client/Luban/DataTables/Datas/角色表_测试.xlsx
+++ b/Client/Luban/DataTables/Datas/角色表_测试.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project_IG\IG03\Client_IG03\Client\Luban\DataTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A76C3B-76B2-461C-B66B-2715C13476C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38383DC-A5EF-437C-A0C9-64C4F52EC28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1896" yWindow="420" windowWidth="16428" windowHeight="13212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +132,18 @@
   </si>
   <si>
     <t>Actor/Pawn/Character/Developer/Prefabs/developer6</t>
+  </si>
+  <si>
+    <t>开发者7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷打不动六点醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actor/Pawn/Character/Developer/Prefabs/developer7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -456,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -597,6 +609,20 @@
         <v>27</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>30007</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
